--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.2600370209994</v>
+        <v>256.7416712139283</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>36.74167121392826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.009831916676807</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.009831916676807</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.55000000000518</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>38.76781739066929</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>27.4678862584789</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>34.22809649842574</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.57537733795152</v>
+        <v>40.91114969288709</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.25177335971647</v>
+        <v>44.20937047779432</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -993,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1007,15 +1029,43 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.505</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.055</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999986</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000009</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000009</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.505</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.055</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000009</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000009</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000009</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000009</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000009</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.409999999999421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.504999999999427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.054999999999382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1594,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.985000000000873</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.230000000000873</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1616,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9.16500000000087</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.630000000000873</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.49500000000087</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1806,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1817,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1839,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1861,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1872,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1894,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1963,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2001,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2012,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2023,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2034,56 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
